--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/44.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/44.xlsx
@@ -479,13 +479,13 @@
         <v>0.02553168748494046</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.936330882708011</v>
+        <v>-1.935733723038829</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3919114446900914</v>
+        <v>0.3920924906533642</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2311567778647412</v>
+        <v>-0.2304661751177414</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.0679236612840057</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.949532637546007</v>
+        <v>-1.949204856749598</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3101502116472952</v>
+        <v>0.3106393277577497</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2110256347872921</v>
+        <v>-0.210132085355656</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.105175565857707</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.021756836458988</v>
+        <v>-2.020265397334124</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2813566032464848</v>
+        <v>0.2827319685481208</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2281738996150148</v>
+        <v>-0.227354812636015</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1294973628506099</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.082821887813153</v>
+        <v>-2.082816777644835</v>
       </c>
       <c r="F5" t="n">
-        <v>0.258197320428491</v>
+        <v>0.259124450966218</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2341688570762859</v>
+        <v>-0.233974670680195</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1388142440577614</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.047953019306072</v>
+        <v>-2.049491909993889</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2434289339889495</v>
+        <v>0.2447926189058582</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2219628550362892</v>
+        <v>-0.2217540681592892</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1369155130073053</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.910398968565381</v>
+        <v>-1.913965136027426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2627701910492171</v>
+        <v>0.2628869948964898</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2092166352026562</v>
+        <v>-0.2087260590441109</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1333849419185394</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.638717599953363</v>
+        <v>-1.642677250375908</v>
       </c>
       <c r="F8" t="n">
-        <v>0.263298728458126</v>
+        <v>0.2617934188763991</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1871655288856622</v>
+        <v>-0.1853375486758445</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1387252876629367</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.262750836400101</v>
+        <v>-1.266351314992281</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2464658340180396</v>
+        <v>0.2458920351183125</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1305638445454046</v>
+        <v>-0.1283007700044961</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1614452018374981</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7782543181053216</v>
+        <v>-0.7803947486065937</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2713873948817602</v>
+        <v>0.2706734313653058</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03009209521761341</v>
+        <v>-0.028243674334523</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2077001685758869</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2457981401203737</v>
+        <v>-0.2465836459932826</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1607376503122444</v>
+        <v>0.1622049986436077</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05772395725818118</v>
+        <v>0.05976510448927155</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2819109430107068</v>
       </c>
       <c r="E12" t="n">
-        <v>0.425292524192537</v>
+        <v>0.4232586772019012</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03855644592073179</v>
+        <v>0.04055233166100398</v>
       </c>
       <c r="G12" t="n">
-        <v>0.155659603052064</v>
+        <v>0.1581124838447906</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3860495379892637</v>
       </c>
       <c r="E13" t="n">
-        <v>1.106391818168627</v>
+        <v>1.106720328989081</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1249937610785879</v>
+        <v>-0.1236271560654974</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2893591268327553</v>
+        <v>0.2908279352122095</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5194638681737537</v>
       </c>
       <c r="E14" t="n">
-        <v>1.824802641107889</v>
+        <v>1.824060936677707</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3530518128304358</v>
+        <v>-0.348906736300346</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4349638827467163</v>
+        <v>0.4367480615138067</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6794844994313757</v>
       </c>
       <c r="E15" t="n">
-        <v>2.530852696909517</v>
+        <v>2.52984526372679</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6239009540306358</v>
+        <v>-0.619915022742455</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6236283769577565</v>
+        <v>0.6250738245677561</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.861920910173038</v>
       </c>
       <c r="E16" t="n">
-        <v>3.204749573653154</v>
+        <v>3.203279305225609</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9401590509061872</v>
+        <v>-0.9375952064585515</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7799995274940782</v>
+        <v>0.7811383650049869</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.061911277420733</v>
       </c>
       <c r="E17" t="n">
-        <v>3.863656136647432</v>
+        <v>3.862069064372614</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.202700518469117</v>
+        <v>-1.198060485636209</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9782609178066612</v>
+        <v>0.9796581838296609</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.272649603654733</v>
       </c>
       <c r="E18" t="n">
-        <v>4.402900078207014</v>
+        <v>4.40202550940056</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.560529104589021</v>
+        <v>-1.556949066670112</v>
       </c>
       <c r="G18" t="n">
-        <v>1.177672826014881</v>
+        <v>1.178906566651698</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.487235971003634</v>
       </c>
       <c r="E19" t="n">
-        <v>4.9313031626916</v>
+        <v>4.931152777738236</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.846925567885262</v>
+        <v>-1.8414189965104</v>
       </c>
       <c r="G19" t="n">
-        <v>1.377807458028099</v>
+        <v>1.3773417026871</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.697360446992737</v>
       </c>
       <c r="E20" t="n">
-        <v>5.294114892945776</v>
+        <v>5.293798062510048</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.167325091170676</v>
+        <v>-2.161671054938632</v>
       </c>
       <c r="G20" t="n">
-        <v>1.586689238153952</v>
+        <v>1.586438109882316</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.89213692252804</v>
       </c>
       <c r="E21" t="n">
-        <v>5.603186633117874</v>
+        <v>5.604156105050238</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.485622145205181</v>
+        <v>-2.479198663629229</v>
       </c>
       <c r="G21" t="n">
-        <v>1.768294399845449</v>
+        <v>1.767246085316177</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.060549354191578</v>
       </c>
       <c r="E22" t="n">
-        <v>5.842831626519173</v>
+        <v>5.842925069596991</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.796015958923598</v>
+        <v>-2.789409971336282</v>
       </c>
       <c r="G22" t="n">
-        <v>1.895190099522506</v>
+        <v>1.894636741296052</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.193090160651388</v>
       </c>
       <c r="E23" t="n">
-        <v>5.997190830786223</v>
+        <v>5.995224146007769</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.04598860249594</v>
+        <v>-3.03988268137976</v>
       </c>
       <c r="G23" t="n">
-        <v>2.014994345622019</v>
+        <v>2.01379126599511</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.285012867617155</v>
       </c>
       <c r="E24" t="n">
-        <v>6.086709299336017</v>
+        <v>6.085309113216836</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.279436421775377</v>
+        <v>-3.273839327418879</v>
       </c>
       <c r="G24" t="n">
-        <v>2.117917515694446</v>
+        <v>2.116095375676992</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.335323054185865</v>
       </c>
       <c r="E25" t="n">
-        <v>6.10239605602474</v>
+        <v>6.099775269701559</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.455205771247512</v>
+        <v>-3.449175772632059</v>
       </c>
       <c r="G25" t="n">
-        <v>2.171529021544523</v>
+        <v>2.17126767293625</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.344965178735523</v>
       </c>
       <c r="E26" t="n">
-        <v>6.049123281331754</v>
+        <v>6.047174117130391</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.622233812799376</v>
+        <v>-3.615450429369014</v>
       </c>
       <c r="G26" t="n">
-        <v>2.197920850835788</v>
+        <v>2.19781134722897</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.316677762113517</v>
       </c>
       <c r="E27" t="n">
-        <v>5.945024772546145</v>
+        <v>5.944521055954782</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.712529756957579</v>
+        <v>-3.704855744191763</v>
       </c>
       <c r="G27" t="n">
-        <v>2.202140389818514</v>
+        <v>2.200481775187242</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.253208520209497</v>
       </c>
       <c r="E28" t="n">
-        <v>5.872034048385438</v>
+        <v>5.871588733717711</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.778386686146107</v>
+        <v>-3.771523730094791</v>
       </c>
       <c r="G28" t="n">
-        <v>2.208653664352058</v>
+        <v>2.20766083165024</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.159871181635039</v>
       </c>
       <c r="E29" t="n">
-        <v>5.6743917184634</v>
+        <v>5.674495381877855</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.818232128571051</v>
+        <v>-3.810537675131962</v>
       </c>
       <c r="G29" t="n">
-        <v>2.208805509353513</v>
+        <v>2.206962928662786</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.041402276659693</v>
       </c>
       <c r="E30" t="n">
-        <v>5.463022016390639</v>
+        <v>5.463319866201184</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.848748593719133</v>
+        <v>-3.838692512493</v>
       </c>
       <c r="G30" t="n">
-        <v>2.163151265598889</v>
+        <v>2.16128970428298</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.906130452459575</v>
       </c>
       <c r="E31" t="n">
-        <v>5.183233000729805</v>
+        <v>5.184332416942259</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.744112057212025</v>
+        <v>-3.734974346235073</v>
       </c>
       <c r="G31" t="n">
-        <v>2.081573998615547</v>
+        <v>2.079156158977002</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.759899030221908</v>
       </c>
       <c r="E32" t="n">
-        <v>4.87805666886425</v>
+        <v>4.87839247992516</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.663334896582501</v>
+        <v>-3.653437960598277</v>
       </c>
       <c r="G32" t="n">
-        <v>1.935483046687313</v>
+        <v>1.933558703303496</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.609371501907316</v>
       </c>
       <c r="E33" t="n">
-        <v>4.596543336408053</v>
+        <v>4.596804685016326</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.524563895758039</v>
+        <v>-3.516096346854814</v>
       </c>
       <c r="G33" t="n">
-        <v>1.84304156185952</v>
+        <v>1.841212121601611</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.459013602497625</v>
       </c>
       <c r="E34" t="n">
-        <v>4.264176528945506</v>
+        <v>4.264623303661324</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.408113380123343</v>
+        <v>-3.401566524483708</v>
       </c>
       <c r="G34" t="n">
-        <v>1.7152566928951</v>
+        <v>1.715115068230282</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.31245943402274</v>
       </c>
       <c r="E35" t="n">
-        <v>3.922818745339143</v>
+        <v>3.921506162105417</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.289859705096374</v>
+        <v>-3.283082891882422</v>
       </c>
       <c r="G35" t="n">
-        <v>1.604361660246311</v>
+        <v>1.602795028644766</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.173347238433264</v>
       </c>
       <c r="E36" t="n">
-        <v>3.589695632965506</v>
+        <v>3.586990163853052</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.165546830492135</v>
+        <v>-3.158398435039046</v>
       </c>
       <c r="G36" t="n">
-        <v>1.45623394123126</v>
+        <v>1.45626606228926</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.04370517659063</v>
       </c>
       <c r="E37" t="n">
-        <v>3.236023803760419</v>
+        <v>3.235266038801237</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.022311732629719</v>
+        <v>-3.016644555964857</v>
       </c>
       <c r="G37" t="n">
-        <v>1.325784484500932</v>
+        <v>1.325464733969023</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9247035575262719</v>
       </c>
       <c r="E38" t="n">
-        <v>2.878472626777787</v>
+        <v>2.87720822513106</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.964484337917144</v>
+        <v>-2.960486726244236</v>
       </c>
       <c r="G38" t="n">
-        <v>1.180103806086243</v>
+        <v>1.179725653630698</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8170550966247453</v>
       </c>
       <c r="E39" t="n">
-        <v>2.533128911883244</v>
+        <v>2.532447069424789</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.825733777765953</v>
+        <v>-2.821254350223046</v>
       </c>
       <c r="G39" t="n">
-        <v>1.079699218970634</v>
+        <v>1.079240763870089</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7206642302577739</v>
       </c>
       <c r="E40" t="n">
-        <v>2.216118890240874</v>
+        <v>2.215073495807784</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.707364028915758</v>
+        <v>-2.70375186993885</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9591839294508482</v>
+        <v>0.9588627188708483</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6333191985727</v>
       </c>
       <c r="E41" t="n">
-        <v>1.882762170172691</v>
+        <v>1.882002945165419</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.578327168713384</v>
+        <v>-2.574610616297976</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8373078751103354</v>
+        <v>0.8369749841456083</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5535444259377789</v>
       </c>
       <c r="E42" t="n">
-        <v>1.549973408811871</v>
+        <v>1.55003473083169</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.515431217053219</v>
+        <v>-2.510636419122675</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7212121511617303</v>
+        <v>0.7209960640442759</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4789128393664401</v>
       </c>
       <c r="E43" t="n">
-        <v>1.285443355749124</v>
+        <v>1.285271070074397</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.435568776552649</v>
+        <v>-2.430333774122696</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6567597882366567</v>
+        <v>0.6567524879962021</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4084555015179321</v>
       </c>
       <c r="E44" t="n">
-        <v>1.018708630069105</v>
+        <v>1.017654475347469</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.319178122889681</v>
+        <v>-2.315052757008818</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5492038855717765</v>
+        <v>0.5491805248023219</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3411143297858257</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8016096992876178</v>
+        <v>0.7988808694057095</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.274495541139556</v>
+        <v>-2.270699416103194</v>
       </c>
       <c r="G45" t="n">
-        <v>0.442196960989078</v>
+        <v>0.4423926074332597</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2769367012615873</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5672442397830444</v>
+        <v>0.5645986326423178</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.18335860928099</v>
+        <v>-2.179772001145673</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3778906028730952</v>
+        <v>0.3765400583890047</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2160687136435124</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3686119972553704</v>
+        <v>0.3660335523268257</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.09605722375724</v>
+        <v>-2.091504063785742</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2964053189194807</v>
+        <v>0.2955628711710264</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1597730232282931</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2511920096883111</v>
+        <v>0.2475900710480393</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.990317620917451</v>
+        <v>-1.986581357852815</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2082943367293226</v>
+        <v>0.2070605960925047</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.108520886321145</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1214492162339823</v>
+        <v>0.1183947956278013</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.893554393740568</v>
+        <v>-1.888989553384341</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1546872110235188</v>
+        <v>0.1541820343840644</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06283681151168648</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01612572710010145</v>
+        <v>0.01318373019692042</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.809971020680317</v>
+        <v>-1.805201773591364</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08937633982099087</v>
+        <v>0.08822582192535482</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.02273496854556621</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.07523094199614674</v>
+        <v>-0.07799627308032782</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.680642880883807</v>
+        <v>-1.675915245165444</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03291190000127876</v>
+        <v>0.03113502147464287</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.0121689325120914</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.183713975198754</v>
+        <v>-0.1847666698722991</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.561590559551111</v>
+        <v>-1.556321245991022</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.007029175573619607</v>
+        <v>-0.00751975173216493</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.04275461611632597</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3064397775281756</v>
+        <v>-0.3059711020909939</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.447141769849051</v>
+        <v>-1.442894489952598</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07544410901741942</v>
+        <v>-0.07544118892123761</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.0700386282507186</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3395595084223485</v>
+        <v>-0.3399975228496211</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.374875229541434</v>
+        <v>-1.370905358782253</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1398818714615839</v>
+        <v>-0.1395752613624931</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.09518013840908343</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4696381129375863</v>
+        <v>-0.4689066288440411</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.331992157063355</v>
+        <v>-1.327181298603811</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1526529121127623</v>
+        <v>-0.1512585661859445</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1189017847423647</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5528827548407458</v>
+        <v>-0.5506532614059282</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.241032621047834</v>
+        <v>-1.238673183332925</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2005132885327495</v>
+        <v>-0.2002446396840223</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.141623864077231</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6559723703955362</v>
+        <v>-0.6523353906010827</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.200676891815117</v>
+        <v>-1.198054645443845</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2328810946601044</v>
+        <v>-0.2312268601731049</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1637857635234977</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6799025586055298</v>
+        <v>-0.6758918064998036</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.158059548089583</v>
+        <v>-1.156773245721493</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2678185854274587</v>
+        <v>-0.2661044889687318</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1852707232011367</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7720987553540505</v>
+        <v>-0.7696911360521421</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.145605337874132</v>
+        <v>-1.143974464156587</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3204547791528082</v>
+        <v>-0.3186165786063541</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2059448228034973</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8368183070797605</v>
+        <v>-0.8352034938912154</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102329512459598</v>
+        <v>-1.102355793325235</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3548009504433444</v>
+        <v>-0.3528649266747995</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2258918551810851</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9705265911489972</v>
+        <v>-0.9674531899176344</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.096798850291236</v>
+        <v>-1.095296460805691</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3976519018634238</v>
+        <v>-0.395729018527697</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2449817299939842</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.093551703337055</v>
+        <v>-1.090081169024965</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.096280533218964</v>
+        <v>-1.095080373688237</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4407437612185032</v>
+        <v>-0.4384398053310492</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2632034347256438</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.151765280769676</v>
+        <v>-1.14870355992304</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.135187894745499</v>
+        <v>-1.134179001514681</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5009576045356688</v>
+        <v>-0.4982097940285786</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2806767359473407</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.247326888367741</v>
+        <v>-1.24509155474056</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.164937834645854</v>
+        <v>-1.163422304727491</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5280371164777524</v>
+        <v>-0.5259185866978439</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2977166916056039</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.382198830765432</v>
+        <v>-1.378192458803979</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.126360443987865</v>
+        <v>-1.124717889885592</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5529484570048366</v>
+        <v>-0.5508430676577463</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.314754572999333</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.441546865564689</v>
+        <v>-1.437400328986508</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.207089423030388</v>
+        <v>-1.20455331949648</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6076345582498219</v>
+        <v>-0.6054649267867317</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3315676298563037</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.540311818674208</v>
+        <v>-1.536515693637845</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.299019891026364</v>
+        <v>-1.295933349362183</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6508636621254468</v>
+        <v>-0.6493320716780835</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3483953508931775</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.561175905893293</v>
+        <v>-1.559253022557566</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.370270237862708</v>
+        <v>-1.366418630998891</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6747383685079857</v>
+        <v>-0.6730476328187135</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3646027466148727</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.625385900835276</v>
+        <v>-1.624128799429003</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.452472405428959</v>
+        <v>-1.448966829962687</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6673753459855332</v>
+        <v>-0.6668351281918969</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3805271145377345</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.680228227225989</v>
+        <v>-1.678701016922898</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.526054449066484</v>
+        <v>-1.523205895241122</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6933393811861626</v>
+        <v>-0.6924487518507083</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3961498468193198</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.716222792811161</v>
+        <v>-1.713707129950525</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.638707379616727</v>
+        <v>-1.635023678283364</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7369772985272418</v>
+        <v>-0.734877749372515</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4118224105219829</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.69528570318753</v>
+        <v>-1.693010948261894</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.733102408790156</v>
+        <v>-1.729626034285703</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7587115744085087</v>
+        <v>-0.7565755240515093</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4273781152457362</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.685605584344805</v>
+        <v>-1.682339456765442</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.784901994959415</v>
+        <v>-1.781365758483234</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7773286476156855</v>
+        <v>-0.7766103039549584</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4424582847664014</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.636407803873546</v>
+        <v>-1.633430765816183</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.854841218610124</v>
+        <v>-1.851986824592397</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7767329479945947</v>
+        <v>-0.775145875719777</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4560485670274519</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.547251427250297</v>
+        <v>-1.544700723235479</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.955612277796551</v>
+        <v>-1.953114135513006</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7787682550333215</v>
+        <v>-0.7776308775705036</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4675000358771113</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.42959491189251</v>
+        <v>-1.426588672873329</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.007352732018128</v>
+        <v>-2.005015195024583</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7646320694171435</v>
+        <v>-0.7639662874876891</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4755365473210658</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.291359018693366</v>
+        <v>-1.289481396848457</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.059696916125296</v>
+        <v>-2.056987066868569</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7514230143386924</v>
+        <v>-0.7506053874077836</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4797024875833413</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.104375039834961</v>
+        <v>-1.104193993871689</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.083642434840244</v>
+        <v>-2.081778683452199</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7242252385012452</v>
+        <v>-0.7240500327303362</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4788903808162546</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.938882968874733</v>
+        <v>-0.9400539274436418</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.081710791215972</v>
+        <v>-2.079277621072472</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.66912156350226</v>
+        <v>-0.6689536579718055</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4728219991562334</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.698722578497343</v>
+        <v>-0.6986305954676157</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.114816651653281</v>
+        <v>-2.112599568627236</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6129666538778206</v>
+        <v>-0.6118161359821844</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4617966936548761</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4411408942992303</v>
+        <v>-0.4415321871875938</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.115527695073554</v>
+        <v>-2.113870540490372</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5183146562403914</v>
+        <v>-0.5174926491652098</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4459589045617436</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1554737250243979</v>
+        <v>-0.1547772820850345</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.102491655693875</v>
+        <v>-2.100340274831921</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.450133330491137</v>
+        <v>-0.4492266406266827</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4261663315179917</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1421891993653403</v>
+        <v>0.1435003225509763</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.042850151228345</v>
+        <v>-2.038199898058802</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3363240418528948</v>
+        <v>-0.3355618967494405</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4027062114207527</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4828870412346125</v>
+        <v>0.48558229001043</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.985848413711179</v>
+        <v>-1.980963092798999</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2555074599249165</v>
+        <v>-0.2546693923207349</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3763948836246521</v>
       </c>
       <c r="E85" t="n">
-        <v>0.786061647167531</v>
+        <v>0.7893598958048939</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.913250442486926</v>
+        <v>-1.909192238818245</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1821896849918453</v>
+        <v>-0.1812304333961183</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3477535492191055</v>
       </c>
       <c r="E86" t="n">
-        <v>1.103360758331901</v>
+        <v>1.105623832872809</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.865920063523939</v>
+        <v>-1.86102963244344</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1057050657495931</v>
+        <v>-0.1056452037778658</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3170167948004272</v>
       </c>
       <c r="E87" t="n">
-        <v>1.351882844125925</v>
+        <v>1.352618708363743</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.697126823830166</v>
+        <v>-1.689975508280895</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05896892635960566</v>
+        <v>-0.05918939362133287</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2847666667763396</v>
       </c>
       <c r="E88" t="n">
-        <v>1.575191359438046</v>
+        <v>1.575877582040774</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.518310353992305</v>
+        <v>-1.510612980457034</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01063886637446656</v>
+        <v>0.01030159526546665</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2507545424932069</v>
       </c>
       <c r="E89" t="n">
-        <v>1.758663922637815</v>
+        <v>1.761235067325906</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.291630587638275</v>
+        <v>-1.282061432450459</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06546951238045183</v>
+        <v>0.06542863103390639</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2162076735923878</v>
       </c>
       <c r="E90" t="n">
-        <v>1.939378454993858</v>
+        <v>1.942330672233675</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.065001922967426</v>
+        <v>-1.054365472625157</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09800376399017037</v>
+        <v>0.09799500370162492</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1811505673060232</v>
       </c>
       <c r="E91" t="n">
-        <v>2.122303500159536</v>
+        <v>2.125166654465808</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.841446659527941</v>
+        <v>-0.8307722479353075</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08076789627699318</v>
+        <v>0.08106574608753855</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1473665734906325</v>
       </c>
       <c r="E92" t="n">
-        <v>2.241151414759504</v>
+        <v>2.243043637085322</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6419062670877218</v>
+        <v>-0.6308420226548157</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09387912813335329</v>
+        <v>0.09334621058017162</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1160914168569764</v>
       </c>
       <c r="E93" t="n">
-        <v>2.34508493811084</v>
+        <v>2.346501184759021</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.392676057969607</v>
+        <v>-0.3824206801790643</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04602459190572979</v>
+        <v>0.04489013453909373</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08802450046341281</v>
       </c>
       <c r="E94" t="n">
-        <v>2.366420620863289</v>
+        <v>2.367374032266652</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2512192986819177</v>
+        <v>-0.240612049301466</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01010010862892125</v>
+        <v>0.009275181457557832</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06443355197698737</v>
       </c>
       <c r="E95" t="n">
-        <v>2.323473306269209</v>
+        <v>2.323838318291936</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.08335026942969002</v>
+        <v>-0.07426293011187428</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02727858254643235</v>
+        <v>-0.02788158240797764</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0450967780091738</v>
       </c>
       <c r="E96" t="n">
-        <v>2.225546420763872</v>
+        <v>2.225950854085053</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03630067162027785</v>
+        <v>0.04568878084482078</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06721089783278526</v>
+        <v>-0.06862860452905761</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.03071431073728695</v>
       </c>
       <c r="E97" t="n">
-        <v>2.075092845140003</v>
+        <v>2.076472590585912</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1133547096179844</v>
+        <v>0.1201395530964372</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1219042993182251</v>
+        <v>-0.1234840713525883</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.02232181797103628</v>
       </c>
       <c r="E98" t="n">
-        <v>1.882430739256055</v>
+        <v>1.883870346673691</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1828150374948749</v>
+        <v>0.1880288692275098</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1394263364572204</v>
+        <v>-0.1398993920386748</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.0187171287408143</v>
       </c>
       <c r="E99" t="n">
-        <v>1.683900700094745</v>
+        <v>1.686252837569199</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1951115625165079</v>
+        <v>0.1993705227976886</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1352316182920397</v>
+        <v>-0.1347936038647671</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.02035512943400437</v>
       </c>
       <c r="E100" t="n">
-        <v>1.522147812295333</v>
+        <v>1.525926416754605</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2212537235842282</v>
+        <v>0.2248994636672272</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1291534380895868</v>
+        <v>-0.1296104331420412</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02501679184152671</v>
       </c>
       <c r="E101" t="n">
-        <v>1.376557656862282</v>
+        <v>1.381301353109644</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2157800032914115</v>
+        <v>0.2180328574956836</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.11060060699841</v>
+        <v>-0.1109378781074099</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.0325410999985253</v>
       </c>
       <c r="E102" t="n">
-        <v>1.190572350898059</v>
+        <v>1.197024303411784</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2306257722797711</v>
+        <v>0.2328625659550433</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1430180547608558</v>
+        <v>-0.1430224349051285</v>
       </c>
     </row>
   </sheetData>
